--- a/sdi2-n.xlsx
+++ b/sdi2-n.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Escritorio\SDI2\SDI.GTDTaskManager2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sdi2-n.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>PRUEBA</t>
   </si>
@@ -46,9 +51,6 @@
     <t>Pruebas Obligatorias Completadas</t>
   </si>
   <si>
-    <t>Nombre y Apellidos</t>
-  </si>
-  <si>
     <t>Pruebas Obligatorias C. Errores</t>
   </si>
   <si>
@@ -68,12 +70,18 @@
   </si>
   <si>
     <t>Aclaraciones cuando la columna Completada sea haya tenido algún problema con la funcionalidad implementada (valor columna completada = 1)</t>
+  </si>
+  <si>
+    <t>Raúl Rodríguez Rodríguez</t>
+  </si>
+  <si>
+    <t>Enol Matilla Blanco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -292,6 +300,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -619,64 +635,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5">
         <f>COUNTIF(B$13:B$50,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <f>COUNTIF(B$13:B$50,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTIF(B$13:B$50,0)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
@@ -684,31 +700,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,308 +735,308 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>13</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>14</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>17</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>18</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>19</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>22</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>23</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>24</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>26</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>27</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>28</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>29</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>31</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>32</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>33</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>34</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>35</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>36</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1042,9 +1058,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,12 +1068,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
